--- a/src/HW7 results.xlsx
+++ b/src/HW7 results.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19029"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Desktop\Google Drive\Drive Sync\Documents\2018 Spring\ME 523 Numerical Solutions Applied to Heat Transfer and Fluid Mechanics\Brian's Homeworks\Numerical-Methods-Projects\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Brian\Google Drive\Drive Sync\Documents\2018 Spring\ME 523 Numerical Solutions Applied to Heat Transfer and Fluid Mechanics\Brian's Homeworks\Numerical-Methods-Projects\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="9435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21576" windowHeight="9432"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,18 +24,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>Steady</t>
   </si>
   <si>
     <t>Unsteady</t>
   </si>
+  <si>
+    <t>Point</t>
+  </si>
+  <si>
+    <t>EU-h</t>
+  </si>
+  <si>
+    <t>EU-4h</t>
+  </si>
+  <si>
+    <t>EU-2h</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -80,9 +92,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -397,21 +410,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:F4"/>
+  <dimension ref="A3:F11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="9" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9.6640625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="9" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -431,7 +444,7 @@
         <v>-1.5545E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>1</v>
       </c>
@@ -450,6 +463,64 @@
       <c r="F4" s="1">
         <v>-1.5545E-2</v>
       </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+      <c r="F6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7">
+        <v>0.14172541318736401</v>
+      </c>
+      <c r="C7" s="2">
+        <v>-0.79171056016428398</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.6695957230589501E-2</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.44468832001616898</v>
+      </c>
+      <c r="F7" s="2">
+        <v>-1.55449854281409E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>3</v>
+      </c>
+      <c r="B9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B11" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
